--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori4/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori4/123/correct_predictions_123.xlsx
@@ -851,7 +851,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1487,31 +1487,31 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Aircraft may be in violation of local laws and regulations</t>
+          <t>Failed to take off</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5-14</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori4/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori4/123/correct_predictions_123.xlsx
@@ -851,7 +851,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1487,31 +1487,31 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
+          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Failed to take off</t>
+          <t>Aircraft may be in violation of local laws and regulations</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-14</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
